--- a/docs/tables/all_tables.xlsx
+++ b/docs/tables/all_tables.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Глоссарий" sheetId="1" r:id="rId1"/>
-    <sheet name="Шаблон" sheetId="3" r:id="rId2"/>
-    <sheet name="UC-1" sheetId="4" r:id="rId3"/>
-    <sheet name="UC-2" sheetId="6" r:id="rId4"/>
-    <sheet name="UC-3" sheetId="5" r:id="rId5"/>
-    <sheet name="UC-4" sheetId="7" r:id="rId6"/>
-    <sheet name="UC-5" sheetId="8" r:id="rId7"/>
-    <sheet name="UC-6" sheetId="9" r:id="rId8"/>
-    <sheet name="UC-7" sheetId="10" r:id="rId9"/>
-    <sheet name="UC-8" sheetId="11" r:id="rId10"/>
-    <sheet name="UC-9" sheetId="12" r:id="rId11"/>
-    <sheet name="UC-10" sheetId="13" r:id="rId12"/>
-    <sheet name="UC-14" sheetId="14" r:id="rId13"/>
-    <sheet name="UC-16" sheetId="15" r:id="rId14"/>
-    <sheet name="UC-17" sheetId="16" r:id="rId15"/>
+    <sheet name="Таблицы БД" sheetId="17" r:id="rId1"/>
+    <sheet name="Описание таблиц" sheetId="18" r:id="rId2"/>
+    <sheet name="Глоссарий" sheetId="1" r:id="rId3"/>
+    <sheet name="Шаблон" sheetId="3" r:id="rId4"/>
+    <sheet name="UC-1" sheetId="4" r:id="rId5"/>
+    <sheet name="UC-2" sheetId="6" r:id="rId6"/>
+    <sheet name="UC-3" sheetId="5" r:id="rId7"/>
+    <sheet name="UC-4" sheetId="7" r:id="rId8"/>
+    <sheet name="UC-5" sheetId="8" r:id="rId9"/>
+    <sheet name="UC-6" sheetId="9" r:id="rId10"/>
+    <sheet name="UC-7" sheetId="10" r:id="rId11"/>
+    <sheet name="UC-8" sheetId="11" r:id="rId12"/>
+    <sheet name="UC-9" sheetId="12" r:id="rId13"/>
+    <sheet name="UC-10" sheetId="13" r:id="rId14"/>
+    <sheet name="UC-14" sheetId="14" r:id="rId15"/>
+    <sheet name="UC-16" sheetId="15" r:id="rId16"/>
+    <sheet name="UC-17" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="307">
   <si>
     <t>Термин   </t>
   </si>
@@ -457,6 +459,615 @@
   </si>
   <si>
     <t>Физическое лицо, взаимодействующее с системой</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Тип объекта</t>
+  </si>
+  <si>
+    <t>Назначение объекта</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>Пользователи системы</t>
+  </si>
+  <si>
+    <t>Personal_account</t>
+  </si>
+  <si>
+    <t>Личный кабинет зарегистрированных пользователей</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Роли пользователей</t>
+  </si>
+  <si>
+    <t>Таблица заказов</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order_status</t>
+  </si>
+  <si>
+    <t>Таблица статусов заказа</t>
+  </si>
+  <si>
+    <t>Order_position</t>
+  </si>
+  <si>
+    <t>Состав заказа</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Справочник ресторанов</t>
+  </si>
+  <si>
+    <t>Dish</t>
+  </si>
+  <si>
+    <t>Каталог блюд</t>
+  </si>
+  <si>
+    <t>Dish_type</t>
+  </si>
+  <si>
+    <t>Справочник типов блюд</t>
+  </si>
+  <si>
+    <t>Menu_section</t>
+  </si>
+  <si>
+    <t>Разделы меню</t>
+  </si>
+  <si>
+    <t>Menu_content</t>
+  </si>
+  <si>
+    <t>Содержимое раздела меню</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Справочник прейскурантов</t>
+  </si>
+  <si>
+    <t>Price_position</t>
+  </si>
+  <si>
+    <t>Позиции прейскуранта</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Счета на оплату</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Платежи</t>
+  </si>
+  <si>
+    <t>Smena</t>
+  </si>
+  <si>
+    <t>Торговые дни</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Справочник меню</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Тип данных</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>user_login</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>personal_account_id</t>
+  </si>
+  <si>
+    <t>user_status</t>
+  </si>
+  <si>
+    <t>user_role_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор</t>
+  </si>
+  <si>
+    <t>Логин пользователя</t>
+  </si>
+  <si>
+    <t>Связь с таблицей личного кабинета пользователя</t>
+  </si>
+  <si>
+    <t>User_role</t>
+  </si>
+  <si>
+    <t>Связь пользователей и ролей</t>
+  </si>
+  <si>
+    <t>Сатус записи: 0 активна, 99 не активна</t>
+  </si>
+  <si>
+    <t>Пароль пользователя</t>
+  </si>
+  <si>
+    <t>loyalty_points</t>
+  </si>
+  <si>
+    <t>personal_email</t>
+  </si>
+  <si>
+    <t>personal_phone</t>
+  </si>
+  <si>
+    <t>personal_account_status</t>
+  </si>
+  <si>
+    <t>Баллы лояльности</t>
+  </si>
+  <si>
+    <t>Адрес электронной почты</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>role_status</t>
+  </si>
+  <si>
+    <t>Название роли</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>user_role_start</t>
+  </si>
+  <si>
+    <t>user_end timestamp</t>
+  </si>
+  <si>
+    <t>user_role_status</t>
+  </si>
+  <si>
+    <t>Связь с таблицей пользователей</t>
+  </si>
+  <si>
+    <t>Связь с таблицей ролей</t>
+  </si>
+  <si>
+    <t>Начало действия роли</t>
+  </si>
+  <si>
+    <t>Завершение действия роли</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>order_obtaining_type</t>
+  </si>
+  <si>
+    <t>order_making_time</t>
+  </si>
+  <si>
+    <t>smena_id</t>
+  </si>
+  <si>
+    <t>restaurant_id</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>Номер заказа</t>
+  </si>
+  <si>
+    <t>Дата заказа</t>
+  </si>
+  <si>
+    <t>Способ получения заказа, 1 - с собой, 2 - в зале</t>
+  </si>
+  <si>
+    <t>Расчётное время приготовления заказа</t>
+  </si>
+  <si>
+    <t>Связь с таблицей торгового дня</t>
+  </si>
+  <si>
+    <t>Связь с таблицей ресторанов</t>
+  </si>
+  <si>
+    <t>order_status_id</t>
+  </si>
+  <si>
+    <t>order_placed_date</t>
+  </si>
+  <si>
+    <t>order_prepared_date</t>
+  </si>
+  <si>
+    <t>order_paid_date</t>
+  </si>
+  <si>
+    <t>order_recived_date</t>
+  </si>
+  <si>
+    <t>order_canceled_date</t>
+  </si>
+  <si>
+    <t>Связь с таблицей заказов</t>
+  </si>
+  <si>
+    <t>Дата и время размещения заказа</t>
+  </si>
+  <si>
+    <t>Дата и время завершения приготовления заказа</t>
+  </si>
+  <si>
+    <t>Дата и время оплаты заказа</t>
+  </si>
+  <si>
+    <t>Дата и время получения заказа</t>
+  </si>
+  <si>
+    <t>Дата и время отмены заказа</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>order_position_id</t>
+  </si>
+  <si>
+    <t>dish_id</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>price_position_id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>price_with_discount</t>
+  </si>
+  <si>
+    <t>Связь с таблицей каталога блюд</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Связь с таблицей позиций прейскуранта</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Скидка</t>
+  </si>
+  <si>
+    <t>Цена со скидкой</t>
+  </si>
+  <si>
+    <t>restaurant_name</t>
+  </si>
+  <si>
+    <t>restaurant_adress</t>
+  </si>
+  <si>
+    <t>restaurant_status</t>
+  </si>
+  <si>
+    <t>Название ресторана</t>
+  </si>
+  <si>
+    <t>Адрес ресторана</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>dish_description</t>
+  </si>
+  <si>
+    <t>dish_proteins</t>
+  </si>
+  <si>
+    <t>dish_type_id</t>
+  </si>
+  <si>
+    <t>dish_fats</t>
+  </si>
+  <si>
+    <t>dish_carbohydrates</t>
+  </si>
+  <si>
+    <t>dish_calorie_content</t>
+  </si>
+  <si>
+    <t>dish_image</t>
+  </si>
+  <si>
+    <t>dish_make_time</t>
+  </si>
+  <si>
+    <t>dish_status</t>
+  </si>
+  <si>
+    <t>dish_name</t>
+  </si>
+  <si>
+    <t>Название блюда</t>
+  </si>
+  <si>
+    <t>Связь с таблицей типов блюд</t>
+  </si>
+  <si>
+    <t>Описание блюда</t>
+  </si>
+  <si>
+    <t>Белки</t>
+  </si>
+  <si>
+    <t>Жиры</t>
+  </si>
+  <si>
+    <t>Углеводы</t>
+  </si>
+  <si>
+    <t>Общая каллорийность</t>
+  </si>
+  <si>
+    <t>Ссылка на изображение блюда</t>
+  </si>
+  <si>
+    <t>Нормативное время приготовления блюда</t>
+  </si>
+  <si>
+    <t>dish_type_id integer [primary key]</t>
+  </si>
+  <si>
+    <t>dish_type_name</t>
+  </si>
+  <si>
+    <t>dish_type_status</t>
+  </si>
+  <si>
+    <t>Название типа блюда</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>menu_name</t>
+  </si>
+  <si>
+    <t>menu_type</t>
+  </si>
+  <si>
+    <t>menu_status</t>
+  </si>
+  <si>
+    <t>Тип меню</t>
+  </si>
+  <si>
+    <t>Название меню</t>
+  </si>
+  <si>
+    <t>menu_section_id</t>
+  </si>
+  <si>
+    <t>menu_section_name</t>
+  </si>
+  <si>
+    <t>menu_section_type</t>
+  </si>
+  <si>
+    <t>Название раздела меню</t>
+  </si>
+  <si>
+    <t>Тип раздела меню</t>
+  </si>
+  <si>
+    <t>menu_content_date_start</t>
+  </si>
+  <si>
+    <t>menu_content_id</t>
+  </si>
+  <si>
+    <t>menu_content_date_close</t>
+  </si>
+  <si>
+    <t>menu_content_status</t>
+  </si>
+  <si>
+    <t>Дата начала действия позиции меню</t>
+  </si>
+  <si>
+    <t>Дата окончания действия позиции меню</t>
+  </si>
+  <si>
+    <t>Связь с таблицей блюд</t>
+  </si>
+  <si>
+    <t>Связь с таблицей разделов меню</t>
+  </si>
+  <si>
+    <t>Связь с таблицей меню</t>
+  </si>
+  <si>
+    <t>price_id</t>
+  </si>
+  <si>
+    <t>price_name</t>
+  </si>
+  <si>
+    <t>price_date_start</t>
+  </si>
+  <si>
+    <t>price_date_end</t>
+  </si>
+  <si>
+    <t>price_status</t>
+  </si>
+  <si>
+    <t>Название прейскуранта</t>
+  </si>
+  <si>
+    <t>Дата начала действия прейскуранта</t>
+  </si>
+  <si>
+    <t>Дата окончания действия прейскуранта</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Дата начала действия цены</t>
+  </si>
+  <si>
+    <t>Дата окончания действия цены</t>
+  </si>
+  <si>
+    <t>Связь с таблицей прейскурантов</t>
+  </si>
+  <si>
+    <t>bill_id</t>
+  </si>
+  <si>
+    <t>bill_date</t>
+  </si>
+  <si>
+    <t>bill_status</t>
+  </si>
+  <si>
+    <t>Дата счёта</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+  </si>
+  <si>
+    <t>payment_status</t>
+  </si>
+  <si>
+    <t>cash_receipt</t>
+  </si>
+  <si>
+    <t>Связь с таблицей счетов</t>
+  </si>
+  <si>
+    <t>Дата платежа</t>
+  </si>
+  <si>
+    <t>Тип платежа: 1 - по карте, 2 - СПБ</t>
+  </si>
+  <si>
+    <t>Статус платежа: 0 - не проведён, 1 - проведён, 2 - отклонён, 3 - инициирован</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>Структурированный текст для формирования чека</t>
+  </si>
+  <si>
+    <t>smena_date_open</t>
+  </si>
+  <si>
+    <t>smena_date_close</t>
+  </si>
+  <si>
+    <t>user_open_id</t>
+  </si>
+  <si>
+    <t>user_close_id</t>
+  </si>
+  <si>
+    <t>Дата открытия торгового дня</t>
+  </si>
+  <si>
+    <t>Дата закрытия торгового дня</t>
+  </si>
+  <si>
+    <t>Пользователь, открывший торговый день</t>
+  </si>
+  <si>
+    <t>Пользователь, закрывший торговый день</t>
+  </si>
+  <si>
+    <t>Прейскурант, действующий в текущем торговом дне</t>
+  </si>
+  <si>
+    <t>Меню действующее в текущем торговом дне</t>
   </si>
 </sst>
 </file>
@@ -519,8 +1130,36 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -795,120 +1434,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="128.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>68</v>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -921,13 +1724,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -935,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -954,12 +1757,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="27.6">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -967,31 +1770,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="98">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="69">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="56">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="96.45" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="96.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="84.45" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1007,13 +1810,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1021,7 +1824,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1029,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1045,7 +1848,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1056,15 +1859,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="112">
+    <row r="6" spans="1:2" ht="124.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="59.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="59.55" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="84.5" customHeight="1">
+    <row r="8" spans="1:2" ht="84.45" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1093,13 +1896,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1107,7 +1910,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1115,7 +1918,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1131,7 +1934,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1139,29 +1942,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="83" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="96.6">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="55.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="78.5" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96.45" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1174,16 +1979,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1191,7 +1996,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1199,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1207,15 +2012,15 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1223,27 +2028,35 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="168">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="110.4">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="112">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="59.55" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="84.45" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,16 +2065,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1269,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1277,7 +2090,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1285,15 +2098,15 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1301,31 +2114,36 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="182">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="82.95" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="78.45" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1334,13 +2152,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1348,7 +2166,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1367,12 +2185,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="70">
+    <row r="4" spans="1:2" ht="41.4">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1380,18 +2198,175 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="210">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="165.6">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="110.4">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="69">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="193.2">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="69">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="207">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28">
+    <row r="7" spans="1:2" ht="27.6">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1410,170 +2385,1655 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="68.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="84">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="96.5" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="1"/>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="128.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="84">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="35.5" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="88" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,13 +4045,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1599,7 +4059,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1623,7 +4083,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1631,26 +4091,26 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="82.8">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="91" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96.45" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1671,13 +4131,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1685,7 +4145,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1709,7 +4169,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1717,26 +4177,26 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="82.8">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="35.549999999999997" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="79.5" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="88.05" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1757,13 +4217,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1771,7 +4231,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1795,7 +4255,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1803,26 +4263,26 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="124.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="96.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="91.05" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1843,13 +4303,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1857,7 +4317,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1881,7 +4341,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1889,26 +4349,26 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="55.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="82" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="79.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1929,13 +4389,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1943,7 +4403,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1962,12 +4422,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1975,26 +4435,26 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="82.8">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="96.5" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="84.5" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96.45" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2015,13 +4475,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2029,7 +4489,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2053,7 +4513,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2061,31 +4521,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="126">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="55.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="59.5" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="41.4">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="84.5" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="82.05" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/docs/tables/all_tables.xlsx
+++ b/docs/tables/all_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Таблицы БД" sheetId="17" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="309">
   <si>
     <t>Термин   </t>
   </si>
@@ -143,17 +143,6 @@
   </si>
   <si>
     <t>Пользователь приложения</t>
-  </si>
-  <si>
-    <t>1. Пользователь выбирает количество товара, которое он хочет переместить в корзину.
-2. Система проверяет наличие выбранного количества товара.
-3. Система подтверждает возможность заказа товара.
-4. Пользователь перемещает товар в корзину.
-5. Система добавляет товар в состав корзины пользователя.</t>
-  </si>
-  <si>
-    <t>3.1. Пользователь получает сообщение об отсутствии нужного товара.
-3.2. Система возвращается к шагу 1.</t>
   </si>
   <si>
     <t>Пользователь находится на экране меню</t>
@@ -204,18 +193,6 @@
     <t>UC-4 Добавить товар в корзину</t>
   </si>
   <si>
-    <t>3.1. Пользователь получает сообщение об отсуствии товара
-3.2. Система предлагает замену.
-3.2. Система возвращается к шагу 1.</t>
-  </si>
-  <si>
-    <t>1. Пользователь выбирает количество товара, которое он хочет переместить в корзину.
-2. Система подтверждает возможность добавления товара.
-3. Пользователь перемещает товар в корзину.
-4. Система добавляет товар в состав корзины пользователя.
-5. Система отображает количество позиций в корзине</t>
-  </si>
-  <si>
     <t>UC-5 Указать в зале или на вынос</t>
   </si>
   <si>
@@ -235,10 +212,6 @@
   </si>
   <si>
     <t>UC-6 Произвести оплату</t>
-  </si>
-  <si>
-    <t>1. Пользователь находится в корзине
-2. В корзину добавлен хотя бы один товар</t>
   </si>
   <si>
     <t>Пользователь выбрал способ оплаты товара</t>
@@ -1068,6 +1041,43 @@
   </si>
   <si>
     <t>Меню действующее в текущем торговом дне</t>
+  </si>
+  <si>
+    <t>Пользователь находится в корзине, в корзину добавлена хотя бы одна позиция</t>
+  </si>
+  <si>
+    <t>1. Пользователь завершил формирование корзины и начинает оформление заказа
+2. Система просит выбрать способ получения заказа, с собой или в зале.
+3. Пользователь выбирает способ получения заказа
+4. Система создаёт заказ и присваивает заказу номер.
+5. Система предлагает пользователю войти в систему лояльности.
+6. Пользователь выбирает вход в систему лояльности</t>
+  </si>
+  <si>
+    <t>Пользователь начал процедуру оформления заказа
+Пользователь вошёл в систему лояльности или отказался от входа и регистрации</t>
+  </si>
+  <si>
+    <t>5. Система предлагает пользователю регистрацию в системе лояльности
+5.1 Пользователь соглашается.
+5.2 Система запускает сценарий UC-2 Регистрация в системе лояльности
+6. Пользователь отказывается входить в систему лояльности.
+6.1 Система запускает сценарий выбора способа оплаты заказа</t>
+  </si>
+  <si>
+    <t>1. Пользователь выбирает количество товара, которое он хочет переместить в корзину.
+2. Система проверяет возможность добавления товара.
+3. Пользователь перемещает товар в корзину.
+4. Система добавляет товар в состав корзины пользователя.
+5. Система отображает количество позиций в корзине</t>
+  </si>
+  <si>
+    <t>3.1. Пользователь получает сообщение об отсуствии товара
+3.2. Система предлагает выбрать другое блюдо
+3.2. Система возвращается к шагу 1.</t>
+  </si>
+  <si>
+    <t>Заказ оформлен, заказу присвоен номер.</t>
   </si>
 </sst>
 </file>
@@ -1440,26 +1450,26 @@
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1467,13 +1477,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1481,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1495,13 +1505,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1509,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1523,13 +1533,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1537,13 +1547,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1551,13 +1561,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1565,13 +1575,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1579,13 +1589,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1593,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1607,13 +1617,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1621,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1635,13 +1645,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1649,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1663,13 +1673,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1677,13 +1687,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1691,13 +1701,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1705,13 +1715,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1724,13 +1734,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1738,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1757,12 +1767,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6">
+    <row r="4" spans="1:2" ht="42">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1770,31 +1780,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="69">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="70">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="96.45" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="96.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="84.45" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="84.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1813,10 +1823,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1824,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1848,7 +1858,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1856,31 +1866,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="124.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="126">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="59.55" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="59.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="84.45" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="84.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1899,10 +1909,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1910,7 +1920,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1934,7 +1944,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1942,26 +1952,26 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="96.6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="98">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="55.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="56">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="96.45" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1985,10 +1995,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1996,7 +2006,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2004,7 +2014,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2020,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2028,31 +2038,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="110.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="112">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="59.55" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="59.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="84.45" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="84.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2071,10 +2081,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2082,7 +2092,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2090,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2106,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2114,15 +2124,15 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="82.95" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="83" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2131,12 +2141,12 @@
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="78.45" customHeight="1">
+    <row r="8" spans="1:2" ht="78.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2152,13 +2162,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2166,7 +2176,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2182,15 +2192,15 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="41.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2198,23 +2208,23 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="165.6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="168">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="110.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2233,10 +2243,10 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2244,7 +2254,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2260,15 +2270,15 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="69">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="70">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2276,23 +2286,23 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="193.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="182">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2312,10 +2322,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2323,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2339,15 +2349,15 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="69">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="70">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2355,23 +2365,23 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="207">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="210">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2387,1528 +2397,1528 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="68.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="68.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
         <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
         <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" t="s">
         <v>287</v>
-      </c>
-      <c r="C97" t="s">
-        <v>172</v>
-      </c>
-      <c r="D97" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" t="s">
         <v>288</v>
-      </c>
-      <c r="C98" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" t="s">
         <v>289</v>
-      </c>
-      <c r="C99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" t="s">
         <v>290</v>
       </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D107" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3925,10 +3935,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="128.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="128.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3939,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3949,7 +3959,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3957,7 +3967,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3973,10 +3983,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4000,7 +4010,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4021,18 +4031,18 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4048,10 +4058,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4094,7 +4104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="82.8">
+    <row r="6" spans="1:2" ht="84">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="41.4">
+    <row r="7" spans="1:2" ht="42">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -4110,12 +4120,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="96.45" customHeight="1">
+    <row r="8" spans="1:2" ht="96.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4130,14 +4140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4145,7 +4155,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4169,7 +4179,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4177,31 +4187,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="82.8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="98">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="35.549999999999997" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="83.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="88.05" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="88" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4217,13 +4227,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4231,7 +4241,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4255,7 +4265,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4263,31 +4273,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="124.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="126">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="91.05" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="91" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4306,10 +4316,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4317,7 +4327,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4341,7 +4351,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4349,23 +4359,23 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="55.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="56">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="41.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.5" customHeight="1">
@@ -4373,7 +4383,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4389,13 +4399,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4403,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4438,28 +4448,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="82.8">
+    <row r="6" spans="1:2" ht="84">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="41.4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="96.45" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="96.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4478,10 +4488,10 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4489,7 +4499,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4513,7 +4523,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4521,31 +4531,31 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="55.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="56">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="41.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="82.05" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="82" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
